--- a/dataBase.xlsx
+++ b/dataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suyam\Documents\Python\Ditel_Easy_Excel\Phase_Contrast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9348DA1-2D48-40F4-B433-CAF91EB935B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E5791D-27D5-4A11-877F-8A8A918846D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="4230" windowWidth="14610" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>周波数</t>
     <rPh sb="0" eb="3">
@@ -41,12 +41,64 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ALL0046</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ALL0047</t>
-    <phoneticPr fontId="1"/>
+    <t>ALL0010</t>
+  </si>
+  <si>
+    <t>ALL0012</t>
+  </si>
+  <si>
+    <t>ALL0013</t>
+  </si>
+  <si>
+    <t>ALL0014</t>
+  </si>
+  <si>
+    <t>ALL0015</t>
+  </si>
+  <si>
+    <t>ALL0016</t>
+  </si>
+  <si>
+    <t>ALL0017</t>
+  </si>
+  <si>
+    <t>ALL0018</t>
+  </si>
+  <si>
+    <t>ALL0019</t>
+  </si>
+  <si>
+    <t>ALL0020</t>
+  </si>
+  <si>
+    <t>ALL0021</t>
+  </si>
+  <si>
+    <t>ALL0023</t>
+  </si>
+  <si>
+    <t>ALL0024</t>
+  </si>
+  <si>
+    <t>ALL0025</t>
+  </si>
+  <si>
+    <t>ALL0026</t>
+  </si>
+  <si>
+    <t>ALL0027</t>
+  </si>
+  <si>
+    <t>ALL0028</t>
+  </si>
+  <si>
+    <t>ALL0029</t>
+  </si>
+  <si>
+    <t>ALL0030</t>
+  </si>
+  <si>
+    <t>ALL0031</t>
   </si>
 </sst>
 </file>
@@ -371,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -389,7 +441,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>84000</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -397,10 +449,154 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>90000</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>280</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>470</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>800</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>1300</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>2200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>3800</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>6300</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>11000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>18000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>30000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>50000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>84000</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>140000</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>240000</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>400000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>670000</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>1100000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>2000000</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/dataBase.xlsx
+++ b/dataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suyam\Documents\Python\Ditel_Easy_Excel\Phase_Contrast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E5791D-27D5-4A11-877F-8A8A918846D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257CFDD9-2C2B-448F-BA77-1D15DD70EFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29925" yWindow="-2385" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>周波数</t>
     <rPh sb="0" eb="3">
@@ -39,66 +39,6 @@
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ALL0010</t>
-  </si>
-  <si>
-    <t>ALL0012</t>
-  </si>
-  <si>
-    <t>ALL0013</t>
-  </si>
-  <si>
-    <t>ALL0014</t>
-  </si>
-  <si>
-    <t>ALL0015</t>
-  </si>
-  <si>
-    <t>ALL0016</t>
-  </si>
-  <si>
-    <t>ALL0017</t>
-  </si>
-  <si>
-    <t>ALL0018</t>
-  </si>
-  <si>
-    <t>ALL0019</t>
-  </si>
-  <si>
-    <t>ALL0020</t>
-  </si>
-  <si>
-    <t>ALL0021</t>
-  </si>
-  <si>
-    <t>ALL0023</t>
-  </si>
-  <si>
-    <t>ALL0024</t>
-  </si>
-  <si>
-    <t>ALL0025</t>
-  </si>
-  <si>
-    <t>ALL0026</t>
-  </si>
-  <si>
-    <t>ALL0027</t>
-  </si>
-  <si>
-    <t>ALL0028</t>
-  </si>
-  <si>
-    <t>ALL0029</t>
-  </si>
-  <si>
-    <t>ALL0030</t>
-  </si>
-  <si>
-    <t>ALL0031</t>
   </si>
 </sst>
 </file>
@@ -423,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -439,166 +379,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>170</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>280</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>470</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>800</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>1300</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>2200</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>3800</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>6300</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>11000</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>18000</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>30000</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>50000</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>84000</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>140000</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>240000</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>400000</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>670000</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1100000</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>2000000</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
